--- a/biology/Botanique/Lasiacis/Lasiacis.xlsx
+++ b/biology/Botanique/Lasiacis/Lasiacis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lasiacis est un genre  de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales et subtropicales d'Amérique, qui comprend une quinzaine d'espèces.
 Ce sont des plantes vivaces, rhizomateuses ou stolonifères, aux tiges (chaumes) généralement ligneuses et ramifiées dans leur partie supérieure, caractéristique relativement exceptionnelle chez les graminées en dehors de la sous-famille des Bambusoideae (bambous).
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (25 octobre 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (25 octobre 2016) :
 Lasiacis anomala Hitchc.
 Lasiacis divaricata (L.) Hitchc.
 Lasiacis grisebachii (Nash) Hitchc.
@@ -558,9 +572,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 octobre 2016)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 octobre 2016) :
 Lasiacis anomala Hitchc. (1919)
 Lasiacis divaricata (L.) Hitchc. (1910)
 variété Lasiacis divaricata var. austroamericana Davidse (1978)
